--- a/Exported csv/table_H2_mean_sem.xlsx
+++ b/Exported csv/table_H2_mean_sem.xlsx
@@ -409,17 +409,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A:['discounted_order'] == True</t>
+          <t>A: ['discounted_order'] == True</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1702.351867105263</v>
+        <v>1702.3519</v>
       </c>
       <c r="E2" t="n">
-        <v>97.08054239688342</v>
+        <v>97.0805</v>
       </c>
       <c r="F2" t="n">
-        <v>1889.956459518498</v>
+        <v>1889.9565</v>
       </c>
       <c r="G2" t="n">
         <v>380</v>
@@ -436,17 +436,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>B:['discounted_order'] == False</t>
+          <t>B: ['discounted_order'] == False</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1375.331844444445</v>
+        <v>1375.3318</v>
       </c>
       <c r="E3" t="n">
-        <v>84.5125173429505</v>
+        <v>84.5125</v>
       </c>
       <c r="F3" t="n">
-        <v>1790.788136227032</v>
+        <v>1790.7881</v>
       </c>
       <c r="G3" t="n">
         <v>450</v>
